--- a/_debug/samples/sample_sheet_valid_small.xlsx
+++ b/_debug/samples/sample_sheet_valid_small.xlsx
@@ -1,39 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\Documents\Projects\adit\_debug\samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAC309-C8FE-4F15-BE1E-558A11C3138F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3105" yWindow="2138" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>PatientBirthDate</t>
+  </si>
+  <si>
+    <t>StudyDate</t>
+  </si>
+  <si>
+    <t>Modality</t>
+  </si>
+  <si>
+    <t>Pseudonym</t>
+  </si>
+  <si>
+    <t>0409631506</t>
+  </si>
+  <si>
+    <t>Turner, Yolanda</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>T3CCVAPB</t>
+  </si>
+  <si>
+    <t>9918223726</t>
+  </si>
+  <si>
+    <t>Kelley, Samuel</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>VQWXNDJ7</t>
+  </si>
+  <si>
+    <t>2268397377</t>
+  </si>
+  <si>
+    <t>Ramirez, Cynthia</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>AXPVQR47</t>
+  </si>
+  <si>
+    <t>RequestID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,14 +121,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -347,156 +425,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>RowID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PatientID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PatientName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PatientBirthDate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>StudyDate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Modality</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pseudonym</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0409631506</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Turner, Yolanda</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
         <v>6906</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>43480</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>T3CCVAPB</t>
-        </is>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>9918223726</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kelley, Samuel</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
         <v>17119</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>43453</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DX</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>VQWXNDJ7</t>
-        </is>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2268397377</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ramirez, Cynthia</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
         <v>17147</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>43368</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>AXPVQR47</t>
-        </is>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
